--- a/tests/Feature/config/salary-otp_zero.xlsx
+++ b/tests/Feature/config/salary-otp_zero.xlsx
@@ -267,64 +267,64 @@
 </t>
   </si>
   <si>
-    <t>OTP fra 2038, 1|20 av formuentransfered -106000 + 23320 (tax) = 82680 to income.2038.income.amount  transfer 106000 (Division: 2120000/20=106000 rewritten rule: 1|19) to income.2038.income.amount  Asset rule:1|20 Division: 2120000/20=106000 rewritten rule: 1|19</t>
+    <t>OTP fra 2038, 1|20 av formuentransfered 106000 with 35277 (tax) to income.2038.income.amount  transfer 106000 (Division: 2120000/20=106000 rewritten rule: 1|19) to income.2038.income.amount  Asset rule:1|20 Division: 2120000/20=106000 rewritten rule: 1|19</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2039.income.amount  transfer 106000 (Division: 2014000/19=106000 rewritten rule: 1|18) to income.2039.income.amount  Asset rule:1|19 Division: 2014000/19=106000 rewritten rule: 1|18</t>
+    <t>transfered 106000 with 35277 (tax) to income.2039.income.amount  transfer 106000 (Division: 2014000/19=106000 rewritten rule: 1|18) to income.2039.income.amount  Asset rule:1|19 Division: 2014000/19=106000 rewritten rule: 1|18</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2040.income.amount  transfer 106000 (Division: 1908000/18=106000 rewritten rule: 1|17) to income.2040.income.amount  Asset rule:1|18 Division: 1908000/18=106000 rewritten rule: 1|17</t>
+    <t>transfered 106000 with 35277 (tax) to income.2040.income.amount  transfer 106000 (Division: 1908000/18=106000 rewritten rule: 1|17) to income.2040.income.amount  Asset rule:1|18 Division: 1908000/18=106000 rewritten rule: 1|17</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2041.income.amount  transfer 106000 (Division: 1802000/17=106000 rewritten rule: 1|16) to income.2041.income.amount  Asset rule:1|17 Division: 1802000/17=106000 rewritten rule: 1|16</t>
+    <t>transfered 106000 with 35277 (tax) to income.2041.income.amount  transfer 106000 (Division: 1802000/17=106000 rewritten rule: 1|16) to income.2041.income.amount  Asset rule:1|17 Division: 1802000/17=106000 rewritten rule: 1|16</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2042.income.amount  transfer 106000 (Division: 1696000/16=106000 rewritten rule: 1|15) to income.2042.income.amount  Asset rule:1|16 Division: 1696000/16=106000 rewritten rule: 1|15</t>
+    <t>transfered 106000 with 35277 (tax) to income.2042.income.amount  transfer 106000 (Division: 1696000/16=106000 rewritten rule: 1|15) to income.2042.income.amount  Asset rule:1|16 Division: 1696000/16=106000 rewritten rule: 1|15</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2043.income.amount  transfer 106000 (Division: 1590000/15=106000 rewritten rule: 1|14) to income.2043.income.amount  Asset rule:1|15 Division: 1590000/15=106000 rewritten rule: 1|14</t>
+    <t>transfered 106000 with 35277 (tax) to income.2043.income.amount  transfer 106000 (Division: 1590000/15=106000 rewritten rule: 1|14) to income.2043.income.amount  Asset rule:1|15 Division: 1590000/15=106000 rewritten rule: 1|14</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2044.income.amount  transfer 106000 (Division: 1484000/14=106000 rewritten rule: 1|13) to income.2044.income.amount  Asset rule:1|14 Division: 1484000/14=106000 rewritten rule: 1|13</t>
+    <t>transfered 106000 with 35277 (tax) to income.2044.income.amount  transfer 106000 (Division: 1484000/14=106000 rewritten rule: 1|13) to income.2044.income.amount  Asset rule:1|14 Division: 1484000/14=106000 rewritten rule: 1|13</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2045.income.amount  transfer 106000 (Division: 1378000/13=106000 rewritten rule: 1|12) to income.2045.income.amount  Asset rule:1|13 Division: 1378000/13=106000 rewritten rule: 1|12</t>
+    <t>transfered 106000 with 35277 (tax) to income.2045.income.amount  transfer 106000 (Division: 1378000/13=106000 rewritten rule: 1|12) to income.2045.income.amount  Asset rule:1|13 Division: 1378000/13=106000 rewritten rule: 1|12</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2046.income.amount  transfer 106000 (Division: 1272000/12=106000 rewritten rule: 1|11) to income.2046.income.amount  Asset rule:1|12 Division: 1272000/12=106000 rewritten rule: 1|11</t>
+    <t>transfered 106000 with 35277 (tax) to income.2046.income.amount  transfer 106000 (Division: 1272000/12=106000 rewritten rule: 1|11) to income.2046.income.amount  Asset rule:1|12 Division: 1272000/12=106000 rewritten rule: 1|11</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2047.income.amount  transfer 106000 (Division: 1166000/11=106000 rewritten rule: 1|10) to income.2047.income.amount  Asset rule:1|11 Division: 1166000/11=106000 rewritten rule: 1|10</t>
+    <t>transfered 106000 with 35277 (tax) to income.2047.income.amount  transfer 106000 (Division: 1166000/11=106000 rewritten rule: 1|10) to income.2047.income.amount  Asset rule:1|11 Division: 1166000/11=106000 rewritten rule: 1|10</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2048.income.amount  transfer 106000 (Division: 1060000/10=106000 rewritten rule: 1|9) to income.2048.income.amount  Asset rule:1|10 Division: 1060000/10=106000 rewritten rule: 1|9</t>
+    <t>transfered 106000 with 35277 (tax) to income.2048.income.amount  transfer 106000 (Division: 1060000/10=106000 rewritten rule: 1|9) to income.2048.income.amount  Asset rule:1|10 Division: 1060000/10=106000 rewritten rule: 1|9</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2049.income.amount  transfer 106000 (Division: 954000/9=106000 rewritten rule: 1|8) to income.2049.income.amount  Asset rule:1|9 Division: 954000/9=106000 rewritten rule: 1|8</t>
+    <t>transfered 106000 with 35277 (tax) to income.2049.income.amount  transfer 106000 (Division: 954000/9=106000 rewritten rule: 1|8) to income.2049.income.amount  Asset rule:1|9 Division: 954000/9=106000 rewritten rule: 1|8</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2050.income.amount  transfer 106000 (Division: 848000/8=106000 rewritten rule: 1|7) to income.2050.income.amount  Asset rule:1|8 Division: 848000/8=106000 rewritten rule: 1|7</t>
+    <t>transfered 106000 with 35277 (tax) to income.2050.income.amount  transfer 106000 (Division: 848000/8=106000 rewritten rule: 1|7) to income.2050.income.amount  Asset rule:1|8 Division: 848000/8=106000 rewritten rule: 1|7</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2051.income.amount  transfer 106000 (Division: 742000/7=106000 rewritten rule: 1|6) to income.2051.income.amount  Asset rule:1|7 Division: 742000/7=106000 rewritten rule: 1|6</t>
+    <t>transfered 106000 with 35277 (tax) to income.2051.income.amount  transfer 106000 (Division: 742000/7=106000 rewritten rule: 1|6) to income.2051.income.amount  Asset rule:1|7 Division: 742000/7=106000 rewritten rule: 1|6</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2052.income.amount  transfer 106000 (Division: 636000/6=106000 rewritten rule: 1|5) to income.2052.income.amount  Asset rule:1|6 Division: 636000/6=106000 rewritten rule: 1|5</t>
+    <t>transfered 106000 with 35277 (tax) to income.2052.income.amount  transfer 106000 (Division: 636000/6=106000 rewritten rule: 1|5) to income.2052.income.amount  Asset rule:1|6 Division: 636000/6=106000 rewritten rule: 1|5</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2053.income.amount  transfer 106000 (Division: 530000/5=106000 rewritten rule: 1|4) to income.2053.income.amount  Asset rule:1|5 Division: 530000/5=106000 rewritten rule: 1|4</t>
+    <t>transfered 106000 with 35277 (tax) to income.2053.income.amount  transfer 106000 (Division: 530000/5=106000 rewritten rule: 1|4) to income.2053.income.amount  Asset rule:1|5 Division: 530000/5=106000 rewritten rule: 1|4</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2054.income.amount  transfer 106000 (Division: 424000/4=106000 rewritten rule: 1|3) to income.2054.income.amount  Asset rule:1|4 Division: 424000/4=106000 rewritten rule: 1|3</t>
+    <t>transfered 106000 with 35277 (tax) to income.2054.income.amount  transfer 106000 (Division: 424000/4=106000 rewritten rule: 1|3) to income.2054.income.amount  Asset rule:1|4 Division: 424000/4=106000 rewritten rule: 1|3</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2055.income.amount  transfer 106000 (Division: 318000/3=106000 rewritten rule: 1|2) to income.2055.income.amount  Asset rule:1|3 Division: 318000/3=106000 rewritten rule: 1|2</t>
+    <t>transfered 106000 with 35277 (tax) to income.2055.income.amount  transfer 106000 (Division: 318000/3=106000 rewritten rule: 1|2) to income.2055.income.amount  Asset rule:1|3 Division: 318000/3=106000 rewritten rule: 1|2</t>
   </si>
   <si>
-    <t>transfered -106000 + 23320 (tax) = 82680 to income.2056.income.amount  transfer 106000 (Division: 212000/2=106000 rewritten rule: 1|1) to income.2056.income.amount  Asset rule:1|2 Division: 212000/2=106000 rewritten rule: 1|1</t>
+    <t>transfered 106000 with 35277 (tax) to income.2056.income.amount  transfer 106000 (Division: 212000/2=106000 rewritten rule: 1|1) to income.2056.income.amount  Asset rule:1|2 Division: 212000/2=106000 rewritten rule: 1|1</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered -106000 + 23320 (tax) = 82680 to income.2057.income.amount  transfer 106000 (Division: 106000/1=106000 rewritten rule: ) to income.2057.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) to income.2057.income.amount  transfer 106000 (Division: 106000/1=106000 rewritten rule: ) to income.2057.income.amount </t>
   </si>
   <si>
     <t>Income</t>
@@ -333,64 +333,64 @@
     <t>Inntekt fra investeringer, må være helt til slutt i konfigurasjonsfilen siden alle transfers til slutt havner her. Alle transfer hit er også ferdig skattet, så det skal ikke skattes i denne kategorien.</t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2038.asset.marketAmount  transfer 106000 (Division: 2120000/20=106000 rewritten rule: 1|19) to income.2038.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2038.asset.marketAmount  transfer 106000 (Division: 2120000/20=106000 rewritten rule: 1|19) to income.2038.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2039.asset.marketAmount  transfer 106000 (Division: 2014000/19=106000 rewritten rule: 1|18) to income.2039.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2039.asset.marketAmount  transfer 106000 (Division: 2014000/19=106000 rewritten rule: 1|18) to income.2039.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2040.asset.marketAmount  transfer 106000 (Division: 1908000/18=106000 rewritten rule: 1|17) to income.2040.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2040.asset.marketAmount  transfer 106000 (Division: 1908000/18=106000 rewritten rule: 1|17) to income.2040.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2041.asset.marketAmount  transfer 106000 (Division: 1802000/17=106000 rewritten rule: 1|16) to income.2041.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2041.asset.marketAmount  transfer 106000 (Division: 1802000/17=106000 rewritten rule: 1|16) to income.2041.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2042.asset.marketAmount  transfer 106000 (Division: 1696000/16=106000 rewritten rule: 1|15) to income.2042.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2042.asset.marketAmount  transfer 106000 (Division: 1696000/16=106000 rewritten rule: 1|15) to income.2042.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2043.asset.marketAmount  transfer 106000 (Division: 1590000/15=106000 rewritten rule: 1|14) to income.2043.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2043.asset.marketAmount  transfer 106000 (Division: 1590000/15=106000 rewritten rule: 1|14) to income.2043.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2044.asset.marketAmount  transfer 106000 (Division: 1484000/14=106000 rewritten rule: 1|13) to income.2044.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2044.asset.marketAmount  transfer 106000 (Division: 1484000/14=106000 rewritten rule: 1|13) to income.2044.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2045.asset.marketAmount  transfer 106000 (Division: 1378000/13=106000 rewritten rule: 1|12) to income.2045.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2045.asset.marketAmount  transfer 106000 (Division: 1378000/13=106000 rewritten rule: 1|12) to income.2045.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2046.asset.marketAmount  transfer 106000 (Division: 1272000/12=106000 rewritten rule: 1|11) to income.2046.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2046.asset.marketAmount  transfer 106000 (Division: 1272000/12=106000 rewritten rule: 1|11) to income.2046.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2047.asset.marketAmount  transfer 106000 (Division: 1166000/11=106000 rewritten rule: 1|10) to income.2047.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2047.asset.marketAmount  transfer 106000 (Division: 1166000/11=106000 rewritten rule: 1|10) to income.2047.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2048.asset.marketAmount  transfer 106000 (Division: 1060000/10=106000 rewritten rule: 1|9) to income.2048.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2048.asset.marketAmount  transfer 106000 (Division: 1060000/10=106000 rewritten rule: 1|9) to income.2048.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2049.asset.marketAmount  transfer 106000 (Division: 954000/9=106000 rewritten rule: 1|8) to income.2049.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2049.asset.marketAmount  transfer 106000 (Division: 954000/9=106000 rewritten rule: 1|8) to income.2049.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2050.asset.marketAmount  transfer 106000 (Division: 848000/8=106000 rewritten rule: 1|7) to income.2050.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2050.asset.marketAmount  transfer 106000 (Division: 848000/8=106000 rewritten rule: 1|7) to income.2050.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2051.asset.marketAmount  transfer 106000 (Division: 742000/7=106000 rewritten rule: 1|6) to income.2051.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2051.asset.marketAmount  transfer 106000 (Division: 742000/7=106000 rewritten rule: 1|6) to income.2051.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2052.asset.marketAmount  transfer 106000 (Division: 636000/6=106000 rewritten rule: 1|5) to income.2052.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2052.asset.marketAmount  transfer 106000 (Division: 636000/6=106000 rewritten rule: 1|5) to income.2052.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2053.asset.marketAmount  transfer 106000 (Division: 530000/5=106000 rewritten rule: 1|4) to income.2053.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2053.asset.marketAmount  transfer 106000 (Division: 530000/5=106000 rewritten rule: 1|4) to income.2053.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2054.asset.marketAmount  transfer 106000 (Division: 424000/4=106000 rewritten rule: 1|3) to income.2054.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2054.asset.marketAmount  transfer 106000 (Division: 424000/4=106000 rewritten rule: 1|3) to income.2054.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2055.asset.marketAmount  transfer 106000 (Division: 318000/3=106000 rewritten rule: 1|2) to income.2055.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2055.asset.marketAmount  transfer 106000 (Division: 318000/3=106000 rewritten rule: 1|2) to income.2055.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2056.asset.marketAmount  transfer 106000 (Division: 212000/2=106000 rewritten rule: 1|1) to income.2056.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2056.asset.marketAmount  transfer 106000 (Division: 212000/2=106000 rewritten rule: 1|1) to income.2056.income.amount </t>
   </si>
   <si>
-    <t xml:space="preserve">transfered 106000 - 23320 (tax) = 82680 from otp.2057.asset.marketAmount  transfer 106000 (Division: 106000/1=106000 rewritten rule: ) to income.2057.income.amount </t>
+    <t xml:space="preserve">transfered 106000 with 35277 (tax) from otp.2057.asset.marketAmount  transfer 106000 (Division: 106000/1=106000 rewritten rule: ) to income.2057.income.amount </t>
   </si>
   <si>
     <t>total</t>
@@ -4120,17 +4120,17 @@
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1137850.0</v>
+        <v>675356.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>32500.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>7150.0</v>
+        <v>469644.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2">
@@ -4225,17 +4225,17 @@
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>943800.0</v>
+        <v>707856.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1210000.0</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>266200.0</v>
+        <v>502144.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2">
@@ -4330,17 +4330,17 @@
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>994500.0</v>
+        <v>740356.0</v>
       </c>
       <c r="AB39" s="9">
-        <v>1275000.0</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>280500.0</v>
+        <v>534644.0</v>
       </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10">
@@ -4435,17 +4435,17 @@
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1045200.0</v>
+        <v>772856.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1340000.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>294800.0</v>
+        <v>567144.0</v>
       </c>
       <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14">
@@ -4540,17 +4540,17 @@
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1095900.0</v>
+        <v>804806.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>1405000.0</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>309100.0</v>
+        <v>600194.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2">
@@ -4645,17 +4645,17 @@
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1146600.0</v>
+        <v>836656.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>1470000.0</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>323400.0</v>
+        <v>633344.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2">
@@ -4750,17 +4750,17 @@
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>1197300.0</v>
+        <v>868506.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>1535000.0</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>337700.0</v>
+        <v>666494.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2">
@@ -4855,17 +4855,17 @@
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>1248000.0</v>
+        <v>900356.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>1600000.0</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>352000.0</v>
+        <v>699644.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2">
@@ -4960,17 +4960,17 @@
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>1298700.0</v>
+        <v>932206.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>1665000.0</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>366300.0</v>
+        <v>732794.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2">
@@ -5065,17 +5065,17 @@
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>1349400.0</v>
+        <v>964056.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>1730000.0</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>380600.0</v>
+        <v>765944.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2">
@@ -5170,17 +5170,17 @@
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>1400100.0</v>
+        <v>995906.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>1795000.0</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>394900.0</v>
+        <v>799094.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2">
@@ -5275,17 +5275,17 @@
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>1450800.0</v>
+        <v>1027756.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>1860000.0</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>409200.0</v>
+        <v>832244.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2">
@@ -5380,17 +5380,17 @@
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>1501500.0</v>
+        <v>1059606.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>1925000.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>423500.0</v>
+        <v>865394.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2">
@@ -5485,17 +5485,17 @@
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>1552200.0</v>
+        <v>1091456.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>1990000.0</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>437800.0</v>
+        <v>898544.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2">
@@ -5590,17 +5590,17 @@
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>1602900.0</v>
+        <v>1123306.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>2055000.0</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>452100.0</v>
+        <v>931694.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2">
@@ -5695,17 +5695,17 @@
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>1653600.0</v>
+        <v>1155156.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>2120000.0</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>466400.0</v>
+        <v>964844.0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2">
@@ -5742,20 +5742,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>732680.0</v>
+        <v>756000.0</v>
       </c>
       <c r="D53" s="17">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E53" s="16">
         <v>180000.0</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>256021.0</v>
+        <v>267978.0</v>
       </c>
       <c r="H53" s="17">
-        <v>0.34943085658132</v>
+        <v>0.35446825396825</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -5802,37 +5802,37 @@
       </c>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>1570920.0</v>
+        <v>1103216.0</v>
       </c>
       <c r="AB53" s="16">
-        <v>2014000.0</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>443080.0</v>
+        <v>910784.0</v>
       </c>
       <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AH53" s="17">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AI53" s="16">
-        <v>379339.0</v>
+        <v>414022.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>3701525.0</v>
+        <v>3736208.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>732680.0</v>
+        <v>756000.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>3663400.0</v>
+        <v>3780000.0</v>
       </c>
       <c r="AN53" s="16">
         <v>-106000.0</v>
@@ -5849,20 +5849,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D54" s="2">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="E54" s="6">
         <v>180000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -5909,37 +5909,37 @@
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>1488240.0</v>
+        <v>1051276.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>1908000.0</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>419760.0</v>
+        <v>856724.0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="AH54" s="2">
         <v>0.05</v>
       </c>
-      <c r="AH54" s="2">
-        <v>0.06</v>
-      </c>
       <c r="AI54" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>3663565.0</v>
+        <v>3732931.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN54" s="1">
         <v>-106000.0</v>
@@ -5956,7 +5956,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="6">
@@ -5964,10 +5964,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -6014,37 +6014,37 @@
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>1405560.0</v>
+        <v>999336.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>1802000.0</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>396440.0</v>
+        <v>802664.0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AH55" s="2">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AI55" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>3625605.0</v>
+        <v>3729654.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN55" s="1">
         <v>-106000.0</v>
@@ -6061,7 +6061,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6">
@@ -6069,10 +6069,10 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -6119,37 +6119,37 @@
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>1322880.0</v>
+        <v>947396.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>1696000.0</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>373120.0</v>
+        <v>748604.0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH56" s="2">
         <v>0.06</v>
       </c>
-      <c r="AH56" s="2">
-        <v>0.08</v>
-      </c>
       <c r="AI56" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>3587645.0</v>
+        <v>3726377.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN56" s="1">
         <v>-106000.0</v>
@@ -6166,7 +6166,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16">
@@ -6174,10 +6174,10 @@
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H57" s="17">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -6224,37 +6224,37 @@
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>1240200.0</v>
+        <v>895456.0</v>
       </c>
       <c r="AB57" s="16">
-        <v>1590000.0</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>349800.0</v>
+        <v>694544.0</v>
       </c>
       <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="AH57" s="17">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AI57" s="16">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>3549685.0</v>
+        <v>3723100.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN57" s="16">
         <v>-106000.0</v>
@@ -6271,7 +6271,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="6">
@@ -6279,10 +6279,10 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -6329,37 +6329,37 @@
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>1157520.0</v>
+        <v>843516.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>1484000.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>326480.0</v>
+        <v>640484.0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AH58" s="2">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AI58" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>3511725.0</v>
+        <v>3719823.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN58" s="1">
         <v>-106000.0</v>
@@ -6376,7 +6376,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="6">
@@ -6384,10 +6384,10 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -6434,37 +6434,37 @@
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>1074840.0</v>
+        <v>791576.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>1378000.0</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>303160.0</v>
+        <v>586424.0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AH59" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AI59" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>3473765.0</v>
+        <v>3716546.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN59" s="1">
         <v>-106000.0</v>
@@ -6481,7 +6481,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="6">
@@ -6489,10 +6489,10 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -6539,37 +6539,37 @@
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>992160.0</v>
+        <v>738856.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>1272000.0</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>279840.0</v>
+        <v>533144.0</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AH60" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AI60" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>3435805.0</v>
+        <v>3713269.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN60" s="1">
         <v>-106000.0</v>
@@ -6586,7 +6586,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="6">
@@ -6594,10 +6594,10 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -6644,37 +6644,37 @@
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>909480.0</v>
+        <v>685856.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>1166000.0</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>256520.0</v>
+        <v>480144.0</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AH61" s="2">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AI61" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>3397845.0</v>
+        <v>3709992.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN61" s="1">
         <v>-106000.0</v>
@@ -6691,7 +6691,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="6">
@@ -6699,10 +6699,10 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -6749,37 +6749,37 @@
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>826800.0</v>
+        <v>632856.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>1060000.0</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>233200.0</v>
+        <v>427144.0</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AH62" s="2">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="AI62" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>3359885.0</v>
+        <v>3706715.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN62" s="1">
         <v>-106000.0</v>
@@ -6796,7 +6796,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6">
@@ -6804,10 +6804,10 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -6854,37 +6854,37 @@
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>744120.0</v>
+        <v>579856.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>954000.0</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>209880.0</v>
+        <v>374144.0</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="AH63" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AI63" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>3321925.0</v>
+        <v>3703438.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN63" s="1">
         <v>-106000.0</v>
@@ -6901,7 +6901,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6">
@@ -6909,10 +6909,10 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -6959,37 +6959,37 @@
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>661440.0</v>
+        <v>524159.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>848000.0</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>186560.0</v>
+        <v>323841.0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="AH64" s="2">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AI64" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>3283965.0</v>
+        <v>3700161.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN64" s="1">
         <v>-106000.0</v>
@@ -7006,7 +7006,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="6">
@@ -7014,10 +7014,10 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -7064,37 +7064,37 @@
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>578760.0</v>
+        <v>467979.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>742000.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>163240.0</v>
+        <v>274021.0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="AH65" s="2">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="AI65" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>3246005.0</v>
+        <v>3696884.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN65" s="1">
         <v>-106000.0</v>
@@ -7111,7 +7111,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="6">
@@ -7119,10 +7119,10 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -7169,37 +7169,37 @@
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>496080.0</v>
+        <v>408535.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>636000.0</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>139920.0</v>
+        <v>227465.0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="AH66" s="2">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AI66" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>3208045.0</v>
+        <v>3693607.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN66" s="1">
         <v>-106000.0</v>
@@ -7216,7 +7216,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="6">
@@ -7224,10 +7224,10 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -7274,37 +7274,37 @@
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>413400.0</v>
+        <v>342179.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>530000.0</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>116600.0</v>
+        <v>187821.0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2">
-        <v>1.94</v>
+        <v>2.49</v>
       </c>
       <c r="AH67" s="2">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="AI67" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>3170085.0</v>
+        <v>3690330.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN67" s="1">
         <v>-106000.0</v>
@@ -7321,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="6">
@@ -7329,10 +7329,10 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -7379,33 +7379,33 @@
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>330720.0</v>
+        <v>275823.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>424000.0</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>93280.0</v>
+        <v>148177.0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>3132125.0</v>
+        <v>3687053.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN68" s="1">
         <v>-42500.0</v>
@@ -7422,7 +7422,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="6">
@@ -7430,10 +7430,10 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -7480,33 +7480,33 @@
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>248040.0</v>
+        <v>209467.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>318000.0</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>69960.0</v>
+        <v>108533.0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>3094165.0</v>
+        <v>3683776.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -7523,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="6">
@@ -7531,10 +7531,10 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -7581,33 +7581,33 @@
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>165360.0</v>
+        <v>141252.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>212000.0</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>46640.0</v>
+        <v>70748.0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>3056205.0</v>
+        <v>3680499.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="6">
@@ -7632,10 +7632,10 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -7682,33 +7682,33 @@
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>82680.0</v>
+        <v>70723.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>106000.0</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>3018245.0</v>
+        <v>3677222.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -7725,7 +7725,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="6">
@@ -7733,10 +7733,10 @@
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H72" s="20">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I72" s="6">
         <v>0</v>
@@ -7797,17 +7797,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>2980285.0</v>
+        <v>3673945.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
@@ -11507,17 +11507,17 @@
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1137850.0</v>
+        <v>675356.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>32500.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>7150.0</v>
+        <v>469644.0</v>
       </c>
       <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2">
@@ -11612,17 +11612,17 @@
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>943800.0</v>
+        <v>707856.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1210000.0</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>266200.0</v>
+        <v>502144.0</v>
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2">
@@ -11717,17 +11717,17 @@
       </c>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>994500.0</v>
+        <v>740356.0</v>
       </c>
       <c r="AB39" s="9">
-        <v>1275000.0</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>280500.0</v>
+        <v>534644.0</v>
       </c>
       <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10">
@@ -11822,17 +11822,17 @@
       </c>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1045200.0</v>
+        <v>772856.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1340000.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>294800.0</v>
+        <v>567144.0</v>
       </c>
       <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14">
@@ -11927,17 +11927,17 @@
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1095900.0</v>
+        <v>804806.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>1405000.0</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>309100.0</v>
+        <v>600194.0</v>
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2">
@@ -12032,17 +12032,17 @@
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1146600.0</v>
+        <v>836656.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>1470000.0</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>323400.0</v>
+        <v>633344.0</v>
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2">
@@ -12137,17 +12137,17 @@
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>1197300.0</v>
+        <v>868506.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>1535000.0</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>337700.0</v>
+        <v>666494.0</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2">
@@ -12242,17 +12242,17 @@
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>1248000.0</v>
+        <v>900356.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>1600000.0</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>352000.0</v>
+        <v>699644.0</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2">
@@ -12347,17 +12347,17 @@
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>1298700.0</v>
+        <v>932206.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>1665000.0</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>366300.0</v>
+        <v>732794.0</v>
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2">
@@ -12452,17 +12452,17 @@
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>1349400.0</v>
+        <v>964056.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>1730000.0</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>380600.0</v>
+        <v>765944.0</v>
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2">
@@ -12557,17 +12557,17 @@
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>1400100.0</v>
+        <v>995906.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>1795000.0</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>394900.0</v>
+        <v>799094.0</v>
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2">
@@ -12662,17 +12662,17 @@
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>1450800.0</v>
+        <v>1027756.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>1860000.0</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>409200.0</v>
+        <v>832244.0</v>
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2">
@@ -12767,17 +12767,17 @@
       </c>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>1501500.0</v>
+        <v>1059606.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>1925000.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>423500.0</v>
+        <v>865394.0</v>
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2">
@@ -12872,17 +12872,17 @@
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>1552200.0</v>
+        <v>1091456.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>1990000.0</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>437800.0</v>
+        <v>898544.0</v>
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2">
@@ -12977,17 +12977,17 @@
       </c>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>1602900.0</v>
+        <v>1123306.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>2055000.0</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>452100.0</v>
+        <v>931694.0</v>
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2">
@@ -13082,17 +13082,17 @@
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>1653600.0</v>
+        <v>1155156.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>2120000.0</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>466400.0</v>
+        <v>964844.0</v>
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2">
@@ -13129,20 +13129,20 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>732680.0</v>
+        <v>756000.0</v>
       </c>
       <c r="D53" s="17">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E53" s="16">
         <v>180000.0</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>256021.0</v>
+        <v>267978.0</v>
       </c>
       <c r="H53" s="17">
-        <v>0.34943085658132</v>
+        <v>0.35446825396825</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -13189,37 +13189,37 @@
       </c>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>1570920.0</v>
+        <v>1103216.0</v>
       </c>
       <c r="AB53" s="16">
-        <v>2014000.0</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>443080.0</v>
+        <v>910784.0</v>
       </c>
       <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AH53" s="17">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AI53" s="16">
-        <v>379339.0</v>
+        <v>414022.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>3701525.0</v>
+        <v>3736208.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>732680.0</v>
+        <v>756000.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>3663400.0</v>
+        <v>3780000.0</v>
       </c>
       <c r="AN53" s="16">
         <v>-106000.0</v>
@@ -13236,20 +13236,20 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D54" s="2">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="E54" s="6">
         <v>180000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H54" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -13296,37 +13296,37 @@
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>1488240.0</v>
+        <v>1051276.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>1908000.0</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>419760.0</v>
+        <v>856724.0</v>
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="AH54" s="2">
         <v>0.05</v>
       </c>
-      <c r="AH54" s="2">
-        <v>0.06</v>
-      </c>
       <c r="AI54" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>3663565.0</v>
+        <v>3732931.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN54" s="1">
         <v>-106000.0</v>
@@ -13343,7 +13343,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="6">
@@ -13351,10 +13351,10 @@
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H55" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -13401,37 +13401,37 @@
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>1405560.0</v>
+        <v>999336.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>1802000.0</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>396440.0</v>
+        <v>802664.0</v>
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AH55" s="2">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AI55" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>3625605.0</v>
+        <v>3729654.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN55" s="1">
         <v>-106000.0</v>
@@ -13448,7 +13448,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6">
@@ -13456,10 +13456,10 @@
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -13506,37 +13506,37 @@
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>1322880.0</v>
+        <v>947396.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>1696000.0</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>373120.0</v>
+        <v>748604.0</v>
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="AH56" s="2">
         <v>0.06</v>
       </c>
-      <c r="AH56" s="2">
-        <v>0.08</v>
-      </c>
       <c r="AI56" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>3587645.0</v>
+        <v>3726377.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN56" s="1">
         <v>-106000.0</v>
@@ -13553,7 +13553,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16">
@@ -13561,10 +13561,10 @@
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H57" s="17">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I57" s="16">
         <v>0</v>
@@ -13611,37 +13611,37 @@
       </c>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>1240200.0</v>
+        <v>895456.0</v>
       </c>
       <c r="AB57" s="16">
-        <v>1590000.0</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>349800.0</v>
+        <v>694544.0</v>
       </c>
       <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="AH57" s="17">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AI57" s="16">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>3549685.0</v>
+        <v>3723100.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN57" s="16">
         <v>-106000.0</v>
@@ -13658,7 +13658,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="6">
@@ -13666,10 +13666,10 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H58" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -13716,37 +13716,37 @@
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>1157520.0</v>
+        <v>843516.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>1484000.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>326480.0</v>
+        <v>640484.0</v>
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AH58" s="2">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AI58" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>3511725.0</v>
+        <v>3719823.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN58" s="1">
         <v>-106000.0</v>
@@ -13763,7 +13763,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="6">
@@ -13771,10 +13771,10 @@
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H59" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -13821,37 +13821,37 @@
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>1074840.0</v>
+        <v>791576.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>1378000.0</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>303160.0</v>
+        <v>586424.0</v>
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AH59" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AI59" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>3473765.0</v>
+        <v>3716546.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN59" s="1">
         <v>-106000.0</v>
@@ -13868,7 +13868,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="6">
@@ -13876,10 +13876,10 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H60" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -13926,37 +13926,37 @@
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>992160.0</v>
+        <v>738856.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>1272000.0</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>279840.0</v>
+        <v>533144.0</v>
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AH60" s="2">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AI60" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>3435805.0</v>
+        <v>3713269.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN60" s="1">
         <v>-106000.0</v>
@@ -13973,7 +13973,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="6">
@@ -13981,10 +13981,10 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H61" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I61" s="1">
         <v>0</v>
@@ -14031,37 +14031,37 @@
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>909480.0</v>
+        <v>685856.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>1166000.0</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>256520.0</v>
+        <v>480144.0</v>
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AH61" s="2">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AI61" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>3397845.0</v>
+        <v>3709992.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN61" s="1">
         <v>-106000.0</v>
@@ -14078,7 +14078,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="6">
@@ -14086,10 +14086,10 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I62" s="1">
         <v>0</v>
@@ -14136,37 +14136,37 @@
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>826800.0</v>
+        <v>632856.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>1060000.0</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>233200.0</v>
+        <v>427144.0</v>
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AH62" s="2">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="AI62" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>3359885.0</v>
+        <v>3706715.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN62" s="1">
         <v>-106000.0</v>
@@ -14183,7 +14183,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6">
@@ -14191,10 +14191,10 @@
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H63" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -14241,37 +14241,37 @@
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>744120.0</v>
+        <v>579856.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>954000.0</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>209880.0</v>
+        <v>374144.0</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="AH63" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AI63" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>3321925.0</v>
+        <v>3703438.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN63" s="1">
         <v>-106000.0</v>
@@ -14288,7 +14288,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6">
@@ -14296,10 +14296,10 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H64" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I64" s="1">
         <v>0</v>
@@ -14346,37 +14346,37 @@
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>661440.0</v>
+        <v>524159.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>848000.0</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>186560.0</v>
+        <v>323841.0</v>
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="AH64" s="2">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AI64" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>3283965.0</v>
+        <v>3700161.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN64" s="1">
         <v>-106000.0</v>
@@ -14393,7 +14393,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="6">
@@ -14401,10 +14401,10 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H65" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -14451,37 +14451,37 @@
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>578760.0</v>
+        <v>467979.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>742000.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>163240.0</v>
+        <v>274021.0</v>
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="AH65" s="2">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="AI65" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>3246005.0</v>
+        <v>3696884.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN65" s="1">
         <v>-106000.0</v>
@@ -14498,7 +14498,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="6">
@@ -14506,10 +14506,10 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H66" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I66" s="1">
         <v>0</v>
@@ -14556,37 +14556,37 @@
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>496080.0</v>
+        <v>408535.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>636000.0</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>139920.0</v>
+        <v>227465.0</v>
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="AH66" s="2">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AI66" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>3208045.0</v>
+        <v>3693607.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN66" s="1">
         <v>-106000.0</v>
@@ -14603,7 +14603,7 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="6">
@@ -14611,10 +14611,10 @@
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I67" s="1">
         <v>0</v>
@@ -14661,37 +14661,37 @@
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>413400.0</v>
+        <v>342179.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>530000.0</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>116600.0</v>
+        <v>187821.0</v>
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2">
-        <v>1.94</v>
+        <v>2.49</v>
       </c>
       <c r="AH67" s="2">
-        <v>2.29</v>
+        <v>1.74</v>
       </c>
       <c r="AI67" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>3170085.0</v>
+        <v>3690330.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN67" s="1">
         <v>-106000.0</v>
@@ -14708,7 +14708,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="6">
@@ -14716,10 +14716,10 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I68" s="1">
         <v>0</v>
@@ -14766,33 +14766,33 @@
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>330720.0</v>
+        <v>275823.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>424000.0</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>93280.0</v>
+        <v>148177.0</v>
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>3132125.0</v>
+        <v>3687053.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN68" s="1">
         <v>-42500.0</v>
@@ -14809,7 +14809,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="6">
@@ -14817,10 +14817,10 @@
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H69" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I69" s="1">
         <v>0</v>
@@ -14867,33 +14867,33 @@
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>248040.0</v>
+        <v>209467.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>318000.0</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>69960.0</v>
+        <v>108533.0</v>
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>3094165.0</v>
+        <v>3683776.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -14910,7 +14910,7 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="6">
@@ -14918,10 +14918,10 @@
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
@@ -14968,33 +14968,33 @@
       </c>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>165360.0</v>
+        <v>141252.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>212000.0</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>46640.0</v>
+        <v>70748.0</v>
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>3056205.0</v>
+        <v>3680499.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -15011,7 +15011,7 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="6">
@@ -15019,10 +15019,10 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H71" s="2">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
@@ -15069,33 +15069,33 @@
       </c>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>82680.0</v>
+        <v>70723.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>106000.0</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>3018245.0</v>
+        <v>3677222.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -15112,7 +15112,7 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="6">
@@ -15120,10 +15120,10 @@
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>23320.0</v>
+        <v>35277.0</v>
       </c>
       <c r="H72" s="20">
-        <v>0.28205128205128</v>
+        <v>0.33280188679245</v>
       </c>
       <c r="I72" s="6">
         <v>0</v>
@@ -15184,17 +15184,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-37960.0</v>
+        <v>-3277.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>2980285.0</v>
+        <v>3673945.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
@@ -25610,7 +25610,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -28040,19 +28040,17 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="1">
-        <v>1137850.0</v>
+        <v>675356.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>32500.0</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="6">
-        <v>7150.0</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>0.22</v>
-      </c>
+        <v>469644.0</v>
+      </c>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -28125,19 +28123,17 @@
       <c r="Y38" s="6"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="1">
-        <v>943800.0</v>
+        <v>707856.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1210000.0</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="6">
-        <v>266200.0</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>0.22</v>
-      </c>
+        <v>502144.0</v>
+      </c>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
@@ -28210,19 +28206,17 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="9">
-        <v>994500.0</v>
+        <v>740356.0</v>
       </c>
       <c r="AB39" s="9">
-        <v>1275000.0</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="9">
-        <v>280500.0</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>0.22</v>
-      </c>
+        <v>534644.0</v>
+      </c>
+      <c r="AD39" s="10"/>
       <c r="AE39" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="10"/>
       <c r="AG39" s="10"/>
@@ -28297,19 +28291,17 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="13">
-        <v>1045200.0</v>
+        <v>772856.0</v>
       </c>
       <c r="AB40" s="13">
-        <v>1340000.0</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="13">
-        <v>294800.0</v>
-      </c>
-      <c r="AD40" s="14">
-        <v>0.22</v>
-      </c>
+        <v>567144.0</v>
+      </c>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
@@ -28384,19 +28376,17 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="1">
-        <v>1095900.0</v>
+        <v>804806.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>1405000.0</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="6">
-        <v>309100.0</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>0.22</v>
-      </c>
+        <v>600194.0</v>
+      </c>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
@@ -28471,19 +28461,17 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="1">
-        <v>1146600.0</v>
+        <v>836656.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>1470000.0</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="6">
-        <v>323400.0</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>0.22</v>
-      </c>
+        <v>633344.0</v>
+      </c>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
@@ -28558,19 +28546,17 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="1">
-        <v>1197300.0</v>
+        <v>868506.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>1535000.0</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="6">
-        <v>337700.0</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>0.22</v>
-      </c>
+        <v>666494.0</v>
+      </c>
+      <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
@@ -28645,19 +28631,17 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="1">
-        <v>1248000.0</v>
+        <v>900356.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>1600000.0</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="6">
-        <v>352000.0</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>0.22</v>
-      </c>
+        <v>699644.0</v>
+      </c>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -28732,19 +28716,17 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="1">
-        <v>1298700.0</v>
+        <v>932206.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>1665000.0</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="6">
-        <v>366300.0</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>0.22</v>
-      </c>
+        <v>732794.0</v>
+      </c>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
@@ -28819,19 +28801,17 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="1">
-        <v>1349400.0</v>
+        <v>964056.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>1730000.0</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="6">
-        <v>380600.0</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>0.22</v>
-      </c>
+        <v>765944.0</v>
+      </c>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
@@ -28906,19 +28886,17 @@
       <c r="Y47" s="6"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="1">
-        <v>1400100.0</v>
+        <v>995906.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>1795000.0</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="6">
-        <v>394900.0</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>0.22</v>
-      </c>
+        <v>799094.0</v>
+      </c>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
@@ -28993,19 +28971,17 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="1">
-        <v>1450800.0</v>
+        <v>1027756.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>1860000.0</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="6">
-        <v>409200.0</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>0.22</v>
-      </c>
+        <v>832244.0</v>
+      </c>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
@@ -29080,19 +29056,17 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="1">
-        <v>1501500.0</v>
+        <v>1059606.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>1925000.0</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="6">
-        <v>423500.0</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>0.22</v>
-      </c>
+        <v>865394.0</v>
+      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
@@ -29167,19 +29141,17 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="1">
-        <v>1552200.0</v>
+        <v>1091456.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>1990000.0</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="6">
-        <v>437800.0</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0.22</v>
-      </c>
+        <v>898544.0</v>
+      </c>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
@@ -29254,19 +29226,17 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="1">
-        <v>1602900.0</v>
+        <v>1123306.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>2055000.0</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="6">
-        <v>452100.0</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0.22</v>
-      </c>
+        <v>931694.0</v>
+      </c>
+      <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
@@ -29341,19 +29311,17 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="1">
-        <v>1653600.0</v>
+        <v>1155156.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>2120000.0</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="6">
-        <v>466400.0</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>0.22</v>
-      </c>
+        <v>964844.0</v>
+      </c>
+      <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
@@ -29394,11 +29362,9 @@
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>23320.0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H53" s="17"/>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="16"/>
@@ -29430,28 +29396,26 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="18"/>
       <c r="AA53" s="16">
-        <v>1570920.0</v>
+        <v>1103216.0</v>
       </c>
       <c r="AB53" s="16">
-        <v>2014000.0</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="16">
-        <v>443080.0</v>
-      </c>
-      <c r="AD53" s="17">
-        <v>0.22</v>
-      </c>
+        <v>910784.0</v>
+      </c>
+      <c r="AD53" s="17"/>
       <c r="AE53" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="17"/>
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
@@ -29481,11 +29445,9 @@
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -29517,28 +29479,26 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="1">
-        <v>1488240.0</v>
+        <v>1051276.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>1908000.0</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="6">
-        <v>419760.0</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0.22</v>
-      </c>
+        <v>856724.0</v>
+      </c>
+      <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>-46640.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
@@ -29568,11 +29528,9 @@
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -29604,28 +29562,26 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="1">
-        <v>1405560.0</v>
+        <v>999336.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>1802000.0</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="6">
-        <v>396440.0</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0.22</v>
-      </c>
+        <v>802664.0</v>
+      </c>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>-69960.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
@@ -29655,11 +29611,9 @@
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -29691,28 +29645,26 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="1">
-        <v>1322880.0</v>
+        <v>947396.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>1696000.0</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="6">
-        <v>373120.0</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>0.22</v>
-      </c>
+        <v>748604.0</v>
+      </c>
+      <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>-93280.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
@@ -29742,11 +29694,9 @@
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>23320.0</v>
-      </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H57" s="17"/>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="16"/>
@@ -29778,28 +29728,26 @@
       <c r="Y57" s="16"/>
       <c r="Z57" s="18"/>
       <c r="AA57" s="16">
-        <v>1240200.0</v>
+        <v>895456.0</v>
       </c>
       <c r="AB57" s="16">
-        <v>1590000.0</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="16">
-        <v>349800.0</v>
-      </c>
-      <c r="AD57" s="17">
-        <v>0.22</v>
-      </c>
+        <v>694544.0</v>
+      </c>
+      <c r="AD57" s="17"/>
       <c r="AE57" s="16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="17"/>
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>-116600.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
@@ -29829,11 +29777,9 @@
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -29865,28 +29811,26 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="1">
-        <v>1157520.0</v>
+        <v>843516.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>1484000.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="6">
-        <v>326480.0</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>0.22</v>
-      </c>
+        <v>640484.0</v>
+      </c>
+      <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>-139920.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
@@ -29916,11 +29860,9 @@
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -29952,28 +29894,26 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="1">
-        <v>1074840.0</v>
+        <v>791576.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>1378000.0</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="6">
-        <v>303160.0</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0.22</v>
-      </c>
+        <v>586424.0</v>
+      </c>
+      <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>-163240.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
@@ -30003,11 +29943,9 @@
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -30039,28 +29977,26 @@
       <c r="Y60" s="6"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="1">
-        <v>992160.0</v>
+        <v>738856.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>1272000.0</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="6">
-        <v>279840.0</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>0.22</v>
-      </c>
+        <v>533144.0</v>
+      </c>
+      <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>-186560.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
@@ -30090,11 +30026,9 @@
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -30126,28 +30060,26 @@
       <c r="Y61" s="6"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="1">
-        <v>909480.0</v>
+        <v>685856.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>1166000.0</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="6">
-        <v>256520.0</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>0.22</v>
-      </c>
+        <v>480144.0</v>
+      </c>
+      <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>-209880.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
@@ -30177,11 +30109,9 @@
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -30213,28 +30143,26 @@
       <c r="Y62" s="6"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="1">
-        <v>826800.0</v>
+        <v>632856.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>1060000.0</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="6">
-        <v>233200.0</v>
-      </c>
-      <c r="AD62" s="2">
-        <v>0.22</v>
-      </c>
+        <v>427144.0</v>
+      </c>
+      <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>-233200.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
@@ -30264,11 +30192,9 @@
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -30300,28 +30226,26 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="1">
-        <v>744120.0</v>
+        <v>579856.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>954000.0</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="6">
-        <v>209880.0</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>0.22</v>
-      </c>
+        <v>374144.0</v>
+      </c>
+      <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>-256520.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
@@ -30351,11 +30275,9 @@
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -30387,28 +30309,26 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="1">
-        <v>661440.0</v>
+        <v>524159.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>848000.0</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="6">
-        <v>186560.0</v>
-      </c>
-      <c r="AD64" s="2">
-        <v>0.22</v>
-      </c>
+        <v>323841.0</v>
+      </c>
+      <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>-279840.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
@@ -30438,11 +30358,9 @@
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -30474,28 +30392,26 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="1">
-        <v>578760.0</v>
+        <v>467979.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>742000.0</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="6">
-        <v>163240.0</v>
-      </c>
-      <c r="AD65" s="2">
-        <v>0.22</v>
-      </c>
+        <v>274021.0</v>
+      </c>
+      <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>-303160.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
@@ -30525,11 +30441,9 @@
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H66" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -30561,28 +30475,26 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="1">
-        <v>496080.0</v>
+        <v>408535.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>636000.0</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="6">
-        <v>139920.0</v>
-      </c>
-      <c r="AD66" s="2">
-        <v>0.22</v>
-      </c>
+        <v>227465.0</v>
+      </c>
+      <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>-326480.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
@@ -30612,11 +30524,9 @@
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H67" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -30648,28 +30558,26 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="1">
-        <v>413400.0</v>
+        <v>342179.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>530000.0</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>116600.0</v>
-      </c>
-      <c r="AD67" s="2">
-        <v>0.22</v>
-      </c>
+        <v>187821.0</v>
+      </c>
+      <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>-349800.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
@@ -30699,11 +30607,9 @@
       <c r="E68" s="6"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -30735,28 +30641,26 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="1">
-        <v>330720.0</v>
+        <v>275823.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>424000.0</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="6">
-        <v>93280.0</v>
-      </c>
-      <c r="AD68" s="2">
-        <v>0.22</v>
-      </c>
+        <v>148177.0</v>
+      </c>
+      <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>-373120.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
@@ -30786,11 +30690,9 @@
       <c r="E69" s="6"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -30822,28 +30724,26 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="3"/>
       <c r="AA69" s="1">
-        <v>248040.0</v>
+        <v>209467.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>318000.0</v>
+        <v>0</v>
       </c>
       <c r="AC69" s="6">
-        <v>69960.0</v>
-      </c>
-      <c r="AD69" s="2">
-        <v>0.22</v>
-      </c>
+        <v>108533.0</v>
+      </c>
+      <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>-396440.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
@@ -30873,11 +30773,9 @@
       <c r="E70" s="6"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H70" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -30909,28 +30807,26 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="1">
-        <v>165360.0</v>
+        <v>141252.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>212000.0</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="6">
-        <v>46640.0</v>
-      </c>
-      <c r="AD70" s="2">
-        <v>0.22</v>
-      </c>
+        <v>70748.0</v>
+      </c>
+      <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>-419760.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
@@ -30960,11 +30856,9 @@
       <c r="E71" s="6"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>23320.0</v>
-      </c>
-      <c r="H71" s="2">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -30996,28 +30890,26 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="1">
-        <v>82680.0</v>
+        <v>70723.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>106000.0</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="6">
-        <v>23320.0</v>
-      </c>
-      <c r="AD71" s="2">
-        <v>0.22</v>
-      </c>
+        <v>35277.0</v>
+      </c>
+      <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>-443080.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
@@ -31047,11 +30939,9 @@
       <c r="E72" s="6"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>23320.0</v>
-      </c>
-      <c r="H72" s="20">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="H72" s="20"/>
       <c r="I72" s="6"/>
       <c r="J72" s="20"/>
       <c r="K72" s="6"/>
@@ -31089,10 +30979,10 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>-23320.0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>-466400.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
@@ -31489,7 +31379,7 @@
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="238.228" bestFit="true" customWidth="true" style="0"/>
@@ -35013,15 +34903,17 @@
         <v>63</v>
       </c>
       <c r="C53" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H53" s="17"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
       <c r="I53" s="16"/>
       <c r="J53" s="17"/>
       <c r="K53" s="16"/>
@@ -35059,17 +34951,17 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="16">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ53" s="16">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AK53" s="17"/>
       <c r="AL53" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM53" s="16">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN53" s="16">
         <v>0</v>
@@ -35088,15 +34980,17 @@
         <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="6"/>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="2"/>
       <c r="K54" s="1"/>
@@ -35134,17 +35028,17 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>330720.0</v>
+        <v>353446.0</v>
       </c>
       <c r="AK54" s="2"/>
       <c r="AL54" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM54" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN54" s="1">
         <v>0</v>
@@ -35163,15 +35057,17 @@
         <v>65</v>
       </c>
       <c r="C55" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="6"/>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="1"/>
@@ -35209,17 +35105,17 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>496080.0</v>
+        <v>530169.0</v>
       </c>
       <c r="AK55" s="2"/>
       <c r="AL55" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM55" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN55" s="1">
         <v>0</v>
@@ -35238,15 +35134,17 @@
         <v>66</v>
       </c>
       <c r="C56" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="6"/>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="1"/>
@@ -35284,17 +35182,17 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>661440.0</v>
+        <v>706892.0</v>
       </c>
       <c r="AK56" s="2"/>
       <c r="AL56" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM56" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN56" s="1">
         <v>0</v>
@@ -35313,15 +35211,17 @@
         <v>67</v>
       </c>
       <c r="C57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="17"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
       <c r="I57" s="16"/>
       <c r="J57" s="17"/>
       <c r="K57" s="16"/>
@@ -35359,17 +35259,17 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="16">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ57" s="16">
-        <v>826800.0</v>
+        <v>883615.0</v>
       </c>
       <c r="AK57" s="17"/>
       <c r="AL57" s="16">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM57" s="16">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN57" s="16">
         <v>0</v>
@@ -35388,15 +35288,17 @@
         <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="6"/>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H58" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="2"/>
       <c r="K58" s="1"/>
@@ -35434,17 +35336,17 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ58" s="1">
-        <v>992160.0</v>
+        <v>1060338.0</v>
       </c>
       <c r="AK58" s="2"/>
       <c r="AL58" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM58" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN58" s="1">
         <v>0</v>
@@ -35463,15 +35365,17 @@
         <v>69</v>
       </c>
       <c r="C59" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="6"/>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H59" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="2"/>
       <c r="K59" s="1"/>
@@ -35509,17 +35413,17 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ59" s="1">
-        <v>1157520.0</v>
+        <v>1237061.0</v>
       </c>
       <c r="AK59" s="2"/>
       <c r="AL59" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM59" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN59" s="1">
         <v>0</v>
@@ -35538,15 +35442,17 @@
         <v>70</v>
       </c>
       <c r="C60" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="6"/>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H60" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="2"/>
       <c r="K60" s="1"/>
@@ -35584,17 +35490,17 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ60" s="1">
-        <v>1322880.0</v>
+        <v>1413784.0</v>
       </c>
       <c r="AK60" s="2"/>
       <c r="AL60" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM60" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN60" s="1">
         <v>0</v>
@@ -35613,15 +35519,17 @@
         <v>71</v>
       </c>
       <c r="C61" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="6"/>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H61" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="2"/>
       <c r="K61" s="1"/>
@@ -35659,17 +35567,17 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ61" s="1">
-        <v>1488240.0</v>
+        <v>1590507.0</v>
       </c>
       <c r="AK61" s="2"/>
       <c r="AL61" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM61" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN61" s="1">
         <v>0</v>
@@ -35688,15 +35596,17 @@
         <v>72</v>
       </c>
       <c r="C62" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="6"/>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H62" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="2"/>
       <c r="K62" s="1"/>
@@ -35734,17 +35644,17 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ62" s="1">
-        <v>1653600.0</v>
+        <v>1767230.0</v>
       </c>
       <c r="AK62" s="2"/>
       <c r="AL62" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM62" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN62" s="1">
         <v>0</v>
@@ -35763,15 +35673,17 @@
         <v>73</v>
       </c>
       <c r="C63" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="6"/>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="2"/>
       <c r="K63" s="1"/>
@@ -35809,17 +35721,17 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ63" s="1">
-        <v>1818960.0</v>
+        <v>1943953.0</v>
       </c>
       <c r="AK63" s="2"/>
       <c r="AL63" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM63" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN63" s="1">
         <v>0</v>
@@ -35838,15 +35750,17 @@
         <v>74</v>
       </c>
       <c r="C64" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="6"/>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="2"/>
       <c r="K64" s="1"/>
@@ -35884,17 +35798,17 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ64" s="1">
-        <v>1984320.0</v>
+        <v>2120676.0</v>
       </c>
       <c r="AK64" s="2"/>
       <c r="AL64" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM64" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN64" s="1">
         <v>0</v>
@@ -35913,15 +35827,17 @@
         <v>75</v>
       </c>
       <c r="C65" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="6"/>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="2"/>
       <c r="K65" s="1"/>
@@ -35959,17 +35875,17 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ65" s="1">
-        <v>2149680.0</v>
+        <v>2297399.0</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM65" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN65" s="1">
         <v>0</v>
@@ -35988,15 +35904,17 @@
         <v>76</v>
       </c>
       <c r="C66" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="6"/>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="2"/>
       <c r="K66" s="1"/>
@@ -36034,17 +35952,17 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ66" s="1">
-        <v>2315040.0</v>
+        <v>2474122.0</v>
       </c>
       <c r="AK66" s="2"/>
       <c r="AL66" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM66" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN66" s="1">
         <v>0</v>
@@ -36063,15 +35981,17 @@
         <v>77</v>
       </c>
       <c r="C67" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="6"/>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="2"/>
       <c r="K67" s="1"/>
@@ -36109,17 +36029,17 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ67" s="1">
-        <v>2480400.0</v>
+        <v>2650845.0</v>
       </c>
       <c r="AK67" s="2"/>
       <c r="AL67" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM67" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN67" s="1">
         <v>0</v>
@@ -36138,15 +36058,17 @@
         <v>78</v>
       </c>
       <c r="C68" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="6"/>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="2"/>
       <c r="K68" s="1"/>
@@ -36184,17 +36106,17 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ68" s="1">
-        <v>2645760.0</v>
+        <v>2827568.0</v>
       </c>
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM68" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN68" s="1">
         <v>0</v>
@@ -36213,15 +36135,17 @@
         <v>79</v>
       </c>
       <c r="C69" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="6"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="2"/>
       <c r="K69" s="1"/>
@@ -36259,17 +36183,17 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ69" s="1">
-        <v>2811120.0</v>
+        <v>3004291.0</v>
       </c>
       <c r="AK69" s="2"/>
       <c r="AL69" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM69" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN69" s="1">
         <v>0</v>
@@ -36288,15 +36212,17 @@
         <v>80</v>
       </c>
       <c r="C70" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="2"/>
       <c r="K70" s="1"/>
@@ -36334,17 +36260,17 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ70" s="1">
-        <v>2976480.0</v>
+        <v>3181014.0</v>
       </c>
       <c r="AK70" s="2"/>
       <c r="AL70" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM70" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN70" s="1">
         <v>0</v>
@@ -36363,15 +36289,17 @@
         <v>81</v>
       </c>
       <c r="C71" s="5">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="6"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="2"/>
       <c r="K71" s="1"/>
@@ -36409,17 +36337,17 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="7">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ71" s="1">
-        <v>3141840.0</v>
+        <v>3357737.0</v>
       </c>
       <c r="AK71" s="2"/>
       <c r="AL71" s="1">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM71" s="1">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN71" s="1">
         <v>0</v>
@@ -36438,15 +36366,17 @@
         <v>82</v>
       </c>
       <c r="C72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="6"/>
       <c r="F72" s="20"/>
       <c r="G72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H72" s="20"/>
+        <v>35277.0</v>
+      </c>
+      <c r="H72" s="20">
+        <v>0</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="20"/>
       <c r="K72" s="6"/>
@@ -36484,17 +36414,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="6">
-        <v>165360.0</v>
+        <v>176723.0</v>
       </c>
       <c r="AJ72" s="6">
-        <v>3307200.0</v>
+        <v>3534460.0</v>
       </c>
       <c r="AK72" s="20"/>
       <c r="AL72" s="6">
-        <v>82680.0</v>
+        <v>106000.0</v>
       </c>
       <c r="AM72" s="6">
-        <v>413400.0</v>
+        <v>530000.0</v>
       </c>
       <c r="AN72" s="6">
         <v>0</v>
